--- a/lab4/BIPS_Peng_Robinson_Regression.xlsx
+++ b/lab4/BIPS_Peng_Robinson_Regression.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\MUCTR\MUCTR-Chemestry\lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\MUCTR\MUCTR-Chemestry\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15E9351-E05C-41FD-B730-C6F21DCB810D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Regression_Example_1" sheetId="1" r:id="rId1"/>
@@ -84,7 +83,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Regression_Example_1!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Regression_Example_2!$A$1:$J$50</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1947,7 +1946,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2592,6 +2591,21 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2648,24 +2662,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2716,7 +2715,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Water ( </a:t>
+              <a:t> N-BUTANOL ( </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3067,6 +3066,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -3102,6 +3102,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -3828,23 +3829,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3880,23 +3864,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4072,11 +4039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4103,17 +4070,17 @@
     </row>
     <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="111" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -4189,12 +4156,12 @@
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="79">
         <f>IF(ISNUMBER(VLOOKUP(B8,Dbk!$B$15:$AE$483,2)),VLOOKUP(B8,Dbk!$B$15:$AE$483,2),0)</f>
         <v>58.08</v>
@@ -4227,12 +4194,12 @@
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="112" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="84">
         <f>IF(ISNUMBER(VLOOKUP(B9,Dbk!$B$15:$AE$483,2)),VLOOKUP(B9,Dbk!$B$15:$AE$483,2),0)</f>
         <v>74.123000000000005</v>
@@ -4332,84 +4299,84 @@
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
-      <c r="M14" s="115" t="s">
+      <c r="M14" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="118" t="s">
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="123" t="s">
         <v>568</v>
       </c>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="121" t="s">
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="125"/>
+      <c r="AR14" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="AS14" s="122"/>
-      <c r="AT14" s="122"/>
-      <c r="AU14" s="122"/>
-      <c r="AV14" s="122"/>
-      <c r="AW14" s="122"/>
-      <c r="AX14" s="122"/>
-      <c r="AY14" s="122"/>
-      <c r="AZ14" s="122"/>
-      <c r="BA14" s="122"/>
-      <c r="BB14" s="122"/>
-      <c r="BC14" s="122"/>
-      <c r="BD14" s="122"/>
-      <c r="BE14" s="122"/>
-      <c r="BF14" s="122"/>
-      <c r="BG14" s="122"/>
-      <c r="BH14" s="122"/>
-      <c r="BI14" s="122"/>
-      <c r="BJ14" s="122"/>
-      <c r="BK14" s="122"/>
-      <c r="BL14" s="122"/>
-      <c r="BM14" s="122"/>
-      <c r="BN14" s="123"/>
+      <c r="AS14" s="127"/>
+      <c r="AT14" s="127"/>
+      <c r="AU14" s="127"/>
+      <c r="AV14" s="127"/>
+      <c r="AW14" s="127"/>
+      <c r="AX14" s="127"/>
+      <c r="AY14" s="127"/>
+      <c r="AZ14" s="127"/>
+      <c r="BA14" s="127"/>
+      <c r="BB14" s="127"/>
+      <c r="BC14" s="127"/>
+      <c r="BD14" s="127"/>
+      <c r="BE14" s="127"/>
+      <c r="BF14" s="127"/>
+      <c r="BG14" s="127"/>
+      <c r="BH14" s="127"/>
+      <c r="BI14" s="127"/>
+      <c r="BJ14" s="127"/>
+      <c r="BK14" s="127"/>
+      <c r="BL14" s="127"/>
+      <c r="BM14" s="127"/>
+      <c r="BN14" s="128"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="K15" s="42"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="117" t="str">
         <f>"Component 1 : "&amp;B8</f>
         <v>Component 1 : ACETONE</v>
       </c>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="112" t="str">
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="117" t="str">
         <f>"Component 2 : "&amp;B9</f>
         <v>Component 2 : N-BUTANOL</v>
       </c>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="114"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="66"/>
       <c r="V15" s="67"/>
       <c r="W15" s="67"/>
@@ -4427,14 +4394,14 @@
       <c r="AG15" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="AH15" s="112" t="s">
+      <c r="AH15" s="117" t="s">
         <v>579</v>
       </c>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="114"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="119"/>
       <c r="AN15" s="44"/>
       <c r="AO15" s="42"/>
       <c r="AP15" s="43"/>
@@ -4456,14 +4423,14 @@
       <c r="BD15" s="85" t="s">
         <v>578</v>
       </c>
-      <c r="BE15" s="109" t="s">
+      <c r="BE15" s="114" t="s">
         <v>579</v>
       </c>
-      <c r="BF15" s="110"/>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="110"/>
-      <c r="BJ15" s="111"/>
+      <c r="BF15" s="115"/>
+      <c r="BG15" s="115"/>
+      <c r="BH15" s="115"/>
+      <c r="BI15" s="115"/>
+      <c r="BJ15" s="116"/>
       <c r="BK15" s="63"/>
       <c r="BL15" s="61"/>
       <c r="BM15" s="62"/>
@@ -4661,28 +4628,28 @@
       </c>
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B17" s="124">
+      <c r="B17" s="106">
         <v>389.096</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="106">
         <v>0.01</v>
       </c>
-      <c r="D17" s="125">
+      <c r="D17" s="107">
         <v>7.2266899999999995E-2</v>
       </c>
-      <c r="E17" s="125">
+      <c r="E17" s="107">
         <f>D17/C17</f>
         <v>7.2266899999999996</v>
       </c>
-      <c r="F17" s="125">
+      <c r="F17" s="107">
         <f t="shared" ref="F17:F27" si="0">AQ17/BN17</f>
         <v>7.1486977350626546</v>
       </c>
-      <c r="G17" s="126">
+      <c r="G17" s="108">
         <f>ABS(E17-F17)</f>
         <v>7.7992264937345013E-2</v>
       </c>
-      <c r="H17" s="125">
+      <c r="H17" s="107">
         <f>C17*F17</f>
         <v>7.1486977350626549E-2</v>
       </c>
@@ -4912,28 +4879,28 @@
       </c>
     </row>
     <row r="18" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B18" s="124">
+      <c r="B18" s="106">
         <v>387.279</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="106">
         <v>0.02</v>
       </c>
-      <c r="D18" s="125">
+      <c r="D18" s="107">
         <v>0.13881499999999999</v>
       </c>
-      <c r="E18" s="125">
+      <c r="E18" s="107">
         <f t="shared" ref="E18:E27" si="9">D18/C18</f>
         <v>6.9407499999999995</v>
       </c>
-      <c r="F18" s="125">
+      <c r="F18" s="107">
         <f t="shared" si="0"/>
         <v>6.8549273095205567</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="107">
         <f t="shared" ref="G18:G27" si="10">ABS(E18-F18)</f>
         <v>8.5822690479442798E-2</v>
       </c>
-      <c r="H18" s="125">
+      <c r="H18" s="107">
         <f t="shared" ref="H18:H27" si="11">C18*F18</f>
         <v>0.13709854619041115</v>
       </c>
@@ -5163,28 +5130,28 @@
       </c>
     </row>
     <row r="19" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B19" s="124">
+      <c r="B19" s="106">
         <v>385.50299999999999</v>
       </c>
-      <c r="C19" s="124">
+      <c r="C19" s="106">
         <v>0.03</v>
       </c>
-      <c r="D19" s="125">
+      <c r="D19" s="107">
         <v>0.20003000000000001</v>
       </c>
-      <c r="E19" s="125">
+      <c r="E19" s="107">
         <f t="shared" si="9"/>
         <v>6.6676666666666673</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="107">
         <f t="shared" si="0"/>
         <v>6.5747614722949255</v>
       </c>
-      <c r="G19" s="125">
+      <c r="G19" s="107">
         <f t="shared" si="10"/>
         <v>9.2905194371741828E-2</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H19" s="107">
         <f t="shared" si="11"/>
         <v>0.19724284416884777</v>
       </c>
@@ -5414,28 +5381,28 @@
       </c>
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B20" s="124">
+      <c r="B20" s="106">
         <v>383.77300000000002</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="107">
         <v>0.04</v>
       </c>
-      <c r="D20" s="125">
+      <c r="D20" s="107">
         <v>0.25628499999999999</v>
       </c>
-      <c r="E20" s="125">
+      <c r="E20" s="107">
         <f t="shared" si="9"/>
         <v>6.4071249999999997</v>
       </c>
-      <c r="F20" s="125">
+      <c r="F20" s="107">
         <f t="shared" si="0"/>
         <v>6.3083777296983543</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="107">
         <f t="shared" si="10"/>
         <v>9.8747270301645429E-2</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="107">
         <f t="shared" si="11"/>
         <v>0.25233510918793417</v>
       </c>
@@ -5665,28 +5632,28 @@
       </c>
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B21" s="124">
+      <c r="B21" s="106">
         <v>380.45699999999999</v>
       </c>
-      <c r="C21" s="124">
+      <c r="C21" s="106">
         <v>0.06</v>
       </c>
-      <c r="D21" s="125">
+      <c r="D21" s="107">
         <v>0.35535</v>
       </c>
-      <c r="E21" s="125">
+      <c r="E21" s="107">
         <f t="shared" si="9"/>
         <v>5.9225000000000003</v>
       </c>
-      <c r="F21" s="125">
+      <c r="F21" s="107">
         <f t="shared" si="0"/>
         <v>5.81561365354814</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="107">
         <f t="shared" si="10"/>
         <v>0.10688634645186035</v>
       </c>
-      <c r="H21" s="125">
+      <c r="H21" s="107">
         <f t="shared" si="11"/>
         <v>0.34893681921288838</v>
       </c>
@@ -5916,28 +5883,28 @@
       </c>
     </row>
     <row r="22" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B22" s="124">
+      <c r="B22" s="106">
         <v>377.34199999999998</v>
       </c>
-      <c r="C22" s="124">
+      <c r="C22" s="106">
         <v>0.08</v>
       </c>
-      <c r="D22" s="125">
+      <c r="D22" s="107">
         <v>0.43873200000000001</v>
       </c>
-      <c r="E22" s="125">
+      <c r="E22" s="107">
         <f t="shared" si="9"/>
         <v>5.4841499999999996</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22" s="107">
         <f t="shared" si="0"/>
         <v>5.3736999361087703</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G22" s="107">
         <f t="shared" si="10"/>
         <v>0.11045006389122936</v>
       </c>
-      <c r="H22" s="125">
+      <c r="H22" s="107">
         <f t="shared" si="11"/>
         <v>0.42989599488870162</v>
       </c>
@@ -6167,28 +6134,28 @@
       </c>
     </row>
     <row r="23" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B23" s="124">
+      <c r="B23" s="106">
         <v>374.43099999999998</v>
       </c>
-      <c r="C23" s="124">
+      <c r="C23" s="106">
         <v>0.1</v>
       </c>
-      <c r="D23" s="125">
+      <c r="D23" s="107">
         <v>0.50889799999999996</v>
       </c>
-      <c r="E23" s="125">
+      <c r="E23" s="107">
         <f t="shared" si="9"/>
         <v>5.0889799999999994</v>
       </c>
-      <c r="F23" s="125">
+      <c r="F23" s="107">
         <f t="shared" si="0"/>
         <v>4.9787197798155267</v>
       </c>
-      <c r="G23" s="125">
+      <c r="G23" s="107">
         <f t="shared" si="10"/>
         <v>0.11026022018447268</v>
       </c>
-      <c r="H23" s="125">
+      <c r="H23" s="107">
         <f t="shared" si="11"/>
         <v>0.49787197798155269</v>
       </c>
@@ -6418,28 +6385,28 @@
       </c>
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B24" s="124">
+      <c r="B24" s="106">
         <v>358.24200000000002</v>
       </c>
-      <c r="C24" s="124">
+      <c r="C24" s="106">
         <v>0.25</v>
       </c>
-      <c r="D24" s="125">
+      <c r="D24" s="107">
         <v>0.78723699999999996</v>
       </c>
-      <c r="E24" s="125">
+      <c r="E24" s="107">
         <f t="shared" si="9"/>
         <v>3.1489479999999999</v>
       </c>
-      <c r="F24" s="125">
+      <c r="F24" s="107">
         <f t="shared" si="0"/>
         <v>3.0828970460231142</v>
       </c>
-      <c r="G24" s="125">
+      <c r="G24" s="107">
         <f t="shared" si="10"/>
         <v>6.6050953976885651E-2</v>
       </c>
-      <c r="H24" s="125">
+      <c r="H24" s="107">
         <f t="shared" si="11"/>
         <v>0.77072426150577855</v>
       </c>
@@ -6669,28 +6636,28 @@
       </c>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B25" s="124">
+      <c r="B25" s="106">
         <v>348.62</v>
       </c>
-      <c r="C25" s="124">
+      <c r="C25" s="106">
         <v>0.4</v>
       </c>
-      <c r="D25" s="125">
+      <c r="D25" s="107">
         <v>0.88525200000000004</v>
       </c>
-      <c r="E25" s="125">
+      <c r="E25" s="107">
         <f t="shared" si="9"/>
         <v>2.21313</v>
       </c>
-      <c r="F25" s="125">
+      <c r="F25" s="107">
         <f t="shared" si="0"/>
         <v>2.1840449293635142</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="107">
         <f t="shared" si="10"/>
         <v>2.9085070636485799E-2</v>
       </c>
-      <c r="H25" s="125">
+      <c r="H25" s="107">
         <f t="shared" si="11"/>
         <v>0.87361797174540579</v>
       </c>
@@ -6920,28 +6887,28 @@
       </c>
     </row>
     <row r="26" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B26" s="124">
+      <c r="B26" s="106">
         <v>344.11799999999999</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="106">
         <v>0.5</v>
       </c>
-      <c r="D26" s="125">
+      <c r="D26" s="107">
         <v>0.91931300000000005</v>
       </c>
-      <c r="E26" s="125">
+      <c r="E26" s="107">
         <f t="shared" si="9"/>
         <v>1.8386260000000001</v>
       </c>
-      <c r="F26" s="125">
+      <c r="F26" s="107">
         <f t="shared" si="0"/>
         <v>1.8232563284146841</v>
       </c>
-      <c r="G26" s="125">
+      <c r="G26" s="107">
         <f t="shared" si="10"/>
         <v>1.5369671585315992E-2</v>
       </c>
-      <c r="H26" s="125">
+      <c r="H26" s="107">
         <f t="shared" si="11"/>
         <v>0.91162816420734205</v>
       </c>
@@ -7171,28 +7138,28 @@
       </c>
     </row>
     <row r="27" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B27" s="127">
+      <c r="B27" s="109">
         <v>335.923</v>
       </c>
-      <c r="C27" s="127">
+      <c r="C27" s="109">
         <v>0.75</v>
       </c>
-      <c r="D27" s="128">
+      <c r="D27" s="110">
         <v>0.96812500000000001</v>
       </c>
-      <c r="E27" s="128">
+      <c r="E27" s="110">
         <f t="shared" si="9"/>
         <v>1.2908333333333333</v>
       </c>
-      <c r="F27" s="128">
+      <c r="F27" s="110">
         <f t="shared" si="0"/>
         <v>1.2892452477813032</v>
       </c>
-      <c r="G27" s="128">
+      <c r="G27" s="110">
         <f t="shared" si="10"/>
         <v>1.5880855520300496E-3</v>
       </c>
-      <c r="H27" s="128">
+      <c r="H27" s="110">
         <f t="shared" si="11"/>
         <v>0.96693393583597742</v>
       </c>
@@ -7438,8 +7405,8 @@
     <mergeCell ref="AR14:BN14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -7447,7 +7414,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dbk!$B$15:$B$483</xm:f>
           </x14:formula1>
@@ -7460,7 +7427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7491,17 +7458,17 @@
     </row>
     <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="111" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -7577,12 +7544,12 @@
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="79">
         <f>IF(ISNUMBER(VLOOKUP(B8,Dbk!$B$15:$AE$483,2)),VLOOKUP(B8,Dbk!$B$15:$AE$483,2),0)</f>
         <v>58.08</v>
@@ -7615,12 +7582,12 @@
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="84">
         <f>IF(ISNUMBER(VLOOKUP(B9,Dbk!$B$15:$AE$483,2)),VLOOKUP(B9,Dbk!$B$15:$AE$483,2),0)</f>
         <v>106.16800000000001</v>
@@ -7733,84 +7700,84 @@
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
-      <c r="M14" s="115" t="s">
+      <c r="M14" s="120" t="s">
         <v>560</v>
       </c>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="118" t="s">
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="123" t="s">
         <v>568</v>
       </c>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="121" t="s">
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="124"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="124"/>
+      <c r="AF14" s="124"/>
+      <c r="AG14" s="124"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="124"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="124"/>
+      <c r="AL14" s="124"/>
+      <c r="AM14" s="124"/>
+      <c r="AN14" s="124"/>
+      <c r="AO14" s="124"/>
+      <c r="AP14" s="124"/>
+      <c r="AQ14" s="125"/>
+      <c r="AR14" s="126" t="s">
         <v>590</v>
       </c>
-      <c r="AS14" s="122"/>
-      <c r="AT14" s="122"/>
-      <c r="AU14" s="122"/>
-      <c r="AV14" s="122"/>
-      <c r="AW14" s="122"/>
-      <c r="AX14" s="122"/>
-      <c r="AY14" s="122"/>
-      <c r="AZ14" s="122"/>
-      <c r="BA14" s="122"/>
-      <c r="BB14" s="122"/>
-      <c r="BC14" s="122"/>
-      <c r="BD14" s="122"/>
-      <c r="BE14" s="122"/>
-      <c r="BF14" s="122"/>
-      <c r="BG14" s="122"/>
-      <c r="BH14" s="122"/>
-      <c r="BI14" s="122"/>
-      <c r="BJ14" s="122"/>
-      <c r="BK14" s="122"/>
-      <c r="BL14" s="122"/>
-      <c r="BM14" s="122"/>
-      <c r="BN14" s="123"/>
+      <c r="AS14" s="127"/>
+      <c r="AT14" s="127"/>
+      <c r="AU14" s="127"/>
+      <c r="AV14" s="127"/>
+      <c r="AW14" s="127"/>
+      <c r="AX14" s="127"/>
+      <c r="AY14" s="127"/>
+      <c r="AZ14" s="127"/>
+      <c r="BA14" s="127"/>
+      <c r="BB14" s="127"/>
+      <c r="BC14" s="127"/>
+      <c r="BD14" s="127"/>
+      <c r="BE14" s="127"/>
+      <c r="BF14" s="127"/>
+      <c r="BG14" s="127"/>
+      <c r="BH14" s="127"/>
+      <c r="BI14" s="127"/>
+      <c r="BJ14" s="127"/>
+      <c r="BK14" s="127"/>
+      <c r="BL14" s="127"/>
+      <c r="BM14" s="127"/>
+      <c r="BN14" s="128"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="K15" s="42"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="112" t="str">
+      <c r="M15" s="117" t="str">
         <f>"Component 1 : "&amp;B8</f>
         <v>Component 1 : ACETONE</v>
       </c>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="112" t="str">
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="117" t="str">
         <f>"Component 2 : "&amp;B9</f>
         <v>Component 2 : M-XYLENE</v>
       </c>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="114"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="66"/>
       <c r="V15" s="67"/>
       <c r="W15" s="67"/>
@@ -7828,15 +7795,15 @@
       <c r="AG15" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="AH15" s="112" t="s">
+      <c r="AH15" s="117" t="s">
         <v>579</v>
       </c>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="114"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="119"/>
       <c r="AO15" s="42"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="44"/>
@@ -7857,15 +7824,15 @@
       <c r="BD15" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="BE15" s="109" t="s">
+      <c r="BE15" s="114" t="s">
         <v>579</v>
       </c>
-      <c r="BF15" s="110"/>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="110"/>
-      <c r="BJ15" s="110"/>
-      <c r="BK15" s="111"/>
+      <c r="BF15" s="115"/>
+      <c r="BG15" s="115"/>
+      <c r="BH15" s="115"/>
+      <c r="BI15" s="115"/>
+      <c r="BJ15" s="115"/>
+      <c r="BK15" s="116"/>
       <c r="BL15" s="61"/>
       <c r="BM15" s="62"/>
       <c r="BN15" s="63"/>
@@ -11828,20 +11795,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:AQ14"/>
     <mergeCell ref="AR14:BN14"/>
     <mergeCell ref="AH15:AN15"/>
     <mergeCell ref="BE15:BK15"/>
     <mergeCell ref="M15:P15"/>
     <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:AQ14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -11849,7 +11816,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dbk!$B$15:$B$483</xm:f>
           </x14:formula1>
@@ -11862,7 +11829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ483"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="70" workbookViewId="0">

--- a/lab4/BIPS_Peng_Robinson_Regression.xlsx
+++ b/lab4/BIPS_Peng_Robinson_Regression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\MUCTR\MUCTR-Chemestry\lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\MUCTR\MUCTR-Chemestry\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15E9351-E05C-41FD-B730-C6F21DCB810D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression_Example_1" sheetId="1" r:id="rId1"/>
@@ -83,7 +84,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Regression_Example_1!$A$1:$J$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Regression_Example_2!$A$1:$J$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1946,7 +1947,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2591,21 +2592,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2662,9 +2648,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2715,7 +2716,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> N-BUTANOL ( </a:t>
+              <a:t> Water ( </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3066,7 +3067,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -3102,7 +3102,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -3829,6 +3828,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3864,6 +3880,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4039,11 +4072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,17 +4103,17 @@
     </row>
     <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="106" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -4156,12 +4189,12 @@
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="79">
         <f>IF(ISNUMBER(VLOOKUP(B8,Dbk!$B$15:$AE$483,2)),VLOOKUP(B8,Dbk!$B$15:$AE$483,2),0)</f>
         <v>58.08</v>
@@ -4194,12 +4227,12 @@
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="107" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="84">
         <f>IF(ISNUMBER(VLOOKUP(B9,Dbk!$B$15:$AE$483,2)),VLOOKUP(B9,Dbk!$B$15:$AE$483,2),0)</f>
         <v>74.123000000000005</v>
@@ -4299,84 +4332,84 @@
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
-      <c r="M14" s="120" t="s">
+      <c r="M14" s="115" t="s">
         <v>560</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="123" t="s">
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="118" t="s">
         <v>568</v>
       </c>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="126" t="s">
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="119"/>
+      <c r="AO14" s="119"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="121" t="s">
         <v>590</v>
       </c>
-      <c r="AS14" s="127"/>
-      <c r="AT14" s="127"/>
-      <c r="AU14" s="127"/>
-      <c r="AV14" s="127"/>
-      <c r="AW14" s="127"/>
-      <c r="AX14" s="127"/>
-      <c r="AY14" s="127"/>
-      <c r="AZ14" s="127"/>
-      <c r="BA14" s="127"/>
-      <c r="BB14" s="127"/>
-      <c r="BC14" s="127"/>
-      <c r="BD14" s="127"/>
-      <c r="BE14" s="127"/>
-      <c r="BF14" s="127"/>
-      <c r="BG14" s="127"/>
-      <c r="BH14" s="127"/>
-      <c r="BI14" s="127"/>
-      <c r="BJ14" s="127"/>
-      <c r="BK14" s="127"/>
-      <c r="BL14" s="127"/>
-      <c r="BM14" s="127"/>
-      <c r="BN14" s="128"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="122"/>
+      <c r="AU14" s="122"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="122"/>
+      <c r="AX14" s="122"/>
+      <c r="AY14" s="122"/>
+      <c r="AZ14" s="122"/>
+      <c r="BA14" s="122"/>
+      <c r="BB14" s="122"/>
+      <c r="BC14" s="122"/>
+      <c r="BD14" s="122"/>
+      <c r="BE14" s="122"/>
+      <c r="BF14" s="122"/>
+      <c r="BG14" s="122"/>
+      <c r="BH14" s="122"/>
+      <c r="BI14" s="122"/>
+      <c r="BJ14" s="122"/>
+      <c r="BK14" s="122"/>
+      <c r="BL14" s="122"/>
+      <c r="BM14" s="122"/>
+      <c r="BN14" s="123"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="K15" s="42"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="117" t="str">
+      <c r="M15" s="112" t="str">
         <f>"Component 1 : "&amp;B8</f>
         <v>Component 1 : ACETONE</v>
       </c>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="117" t="str">
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="112" t="str">
         <f>"Component 2 : "&amp;B9</f>
         <v>Component 2 : N-BUTANOL</v>
       </c>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="114"/>
       <c r="U15" s="66"/>
       <c r="V15" s="67"/>
       <c r="W15" s="67"/>
@@ -4394,14 +4427,14 @@
       <c r="AG15" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="AH15" s="117" t="s">
+      <c r="AH15" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="119"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="114"/>
       <c r="AN15" s="44"/>
       <c r="AO15" s="42"/>
       <c r="AP15" s="43"/>
@@ -4423,14 +4456,14 @@
       <c r="BD15" s="85" t="s">
         <v>578</v>
       </c>
-      <c r="BE15" s="114" t="s">
+      <c r="BE15" s="109" t="s">
         <v>579</v>
       </c>
-      <c r="BF15" s="115"/>
-      <c r="BG15" s="115"/>
-      <c r="BH15" s="115"/>
-      <c r="BI15" s="115"/>
-      <c r="BJ15" s="116"/>
+      <c r="BF15" s="110"/>
+      <c r="BG15" s="110"/>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="110"/>
+      <c r="BJ15" s="111"/>
       <c r="BK15" s="63"/>
       <c r="BL15" s="61"/>
       <c r="BM15" s="62"/>
@@ -4628,28 +4661,28 @@
       </c>
     </row>
     <row r="17" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B17" s="106">
+      <c r="B17" s="124">
         <v>389.096</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="124">
         <v>0.01</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="125">
         <v>7.2266899999999995E-2</v>
       </c>
-      <c r="E17" s="107">
+      <c r="E17" s="125">
         <f>D17/C17</f>
         <v>7.2266899999999996</v>
       </c>
-      <c r="F17" s="107">
+      <c r="F17" s="125">
         <f t="shared" ref="F17:F27" si="0">AQ17/BN17</f>
         <v>7.1486977350626546</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="126">
         <f>ABS(E17-F17)</f>
         <v>7.7992264937345013E-2</v>
       </c>
-      <c r="H17" s="107">
+      <c r="H17" s="125">
         <f>C17*F17</f>
         <v>7.1486977350626549E-2</v>
       </c>
@@ -4879,28 +4912,28 @@
       </c>
     </row>
     <row r="18" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B18" s="106">
+      <c r="B18" s="124">
         <v>387.279</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="124">
         <v>0.02</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="125">
         <v>0.13881499999999999</v>
       </c>
-      <c r="E18" s="107">
+      <c r="E18" s="125">
         <f t="shared" ref="E18:E27" si="9">D18/C18</f>
         <v>6.9407499999999995</v>
       </c>
-      <c r="F18" s="107">
+      <c r="F18" s="125">
         <f t="shared" si="0"/>
         <v>6.8549273095205567</v>
       </c>
-      <c r="G18" s="107">
+      <c r="G18" s="125">
         <f t="shared" ref="G18:G27" si="10">ABS(E18-F18)</f>
         <v>8.5822690479442798E-2</v>
       </c>
-      <c r="H18" s="107">
+      <c r="H18" s="125">
         <f t="shared" ref="H18:H27" si="11">C18*F18</f>
         <v>0.13709854619041115</v>
       </c>
@@ -5130,28 +5163,28 @@
       </c>
     </row>
     <row r="19" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B19" s="106">
+      <c r="B19" s="124">
         <v>385.50299999999999</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="124">
         <v>0.03</v>
       </c>
-      <c r="D19" s="107">
+      <c r="D19" s="125">
         <v>0.20003000000000001</v>
       </c>
-      <c r="E19" s="107">
+      <c r="E19" s="125">
         <f t="shared" si="9"/>
         <v>6.6676666666666673</v>
       </c>
-      <c r="F19" s="107">
+      <c r="F19" s="125">
         <f t="shared" si="0"/>
         <v>6.5747614722949255</v>
       </c>
-      <c r="G19" s="107">
+      <c r="G19" s="125">
         <f t="shared" si="10"/>
         <v>9.2905194371741828E-2</v>
       </c>
-      <c r="H19" s="107">
+      <c r="H19" s="125">
         <f t="shared" si="11"/>
         <v>0.19724284416884777</v>
       </c>
@@ -5381,28 +5414,28 @@
       </c>
     </row>
     <row r="20" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B20" s="106">
+      <c r="B20" s="124">
         <v>383.77300000000002</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="125">
         <v>0.04</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="125">
         <v>0.25628499999999999</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="125">
         <f t="shared" si="9"/>
         <v>6.4071249999999997</v>
       </c>
-      <c r="F20" s="107">
+      <c r="F20" s="125">
         <f t="shared" si="0"/>
         <v>6.3083777296983543</v>
       </c>
-      <c r="G20" s="107">
+      <c r="G20" s="125">
         <f t="shared" si="10"/>
         <v>9.8747270301645429E-2</v>
       </c>
-      <c r="H20" s="107">
+      <c r="H20" s="125">
         <f t="shared" si="11"/>
         <v>0.25233510918793417</v>
       </c>
@@ -5632,28 +5665,28 @@
       </c>
     </row>
     <row r="21" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B21" s="106">
+      <c r="B21" s="124">
         <v>380.45699999999999</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="124">
         <v>0.06</v>
       </c>
-      <c r="D21" s="107">
+      <c r="D21" s="125">
         <v>0.35535</v>
       </c>
-      <c r="E21" s="107">
+      <c r="E21" s="125">
         <f t="shared" si="9"/>
         <v>5.9225000000000003</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="125">
         <f t="shared" si="0"/>
         <v>5.81561365354814</v>
       </c>
-      <c r="G21" s="107">
+      <c r="G21" s="125">
         <f t="shared" si="10"/>
         <v>0.10688634645186035</v>
       </c>
-      <c r="H21" s="107">
+      <c r="H21" s="125">
         <f t="shared" si="11"/>
         <v>0.34893681921288838</v>
       </c>
@@ -5883,28 +5916,28 @@
       </c>
     </row>
     <row r="22" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B22" s="106">
+      <c r="B22" s="124">
         <v>377.34199999999998</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="124">
         <v>0.08</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="125">
         <v>0.43873200000000001</v>
       </c>
-      <c r="E22" s="107">
+      <c r="E22" s="125">
         <f t="shared" si="9"/>
         <v>5.4841499999999996</v>
       </c>
-      <c r="F22" s="107">
+      <c r="F22" s="125">
         <f t="shared" si="0"/>
         <v>5.3736999361087703</v>
       </c>
-      <c r="G22" s="107">
+      <c r="G22" s="125">
         <f t="shared" si="10"/>
         <v>0.11045006389122936</v>
       </c>
-      <c r="H22" s="107">
+      <c r="H22" s="125">
         <f t="shared" si="11"/>
         <v>0.42989599488870162</v>
       </c>
@@ -6134,28 +6167,28 @@
       </c>
     </row>
     <row r="23" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B23" s="106">
+      <c r="B23" s="124">
         <v>374.43099999999998</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="124">
         <v>0.1</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="125">
         <v>0.50889799999999996</v>
       </c>
-      <c r="E23" s="107">
+      <c r="E23" s="125">
         <f t="shared" si="9"/>
         <v>5.0889799999999994</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="125">
         <f t="shared" si="0"/>
         <v>4.9787197798155267</v>
       </c>
-      <c r="G23" s="107">
+      <c r="G23" s="125">
         <f t="shared" si="10"/>
         <v>0.11026022018447268</v>
       </c>
-      <c r="H23" s="107">
+      <c r="H23" s="125">
         <f t="shared" si="11"/>
         <v>0.49787197798155269</v>
       </c>
@@ -6385,28 +6418,28 @@
       </c>
     </row>
     <row r="24" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B24" s="106">
+      <c r="B24" s="124">
         <v>358.24200000000002</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="124">
         <v>0.25</v>
       </c>
-      <c r="D24" s="107">
+      <c r="D24" s="125">
         <v>0.78723699999999996</v>
       </c>
-      <c r="E24" s="107">
+      <c r="E24" s="125">
         <f t="shared" si="9"/>
         <v>3.1489479999999999</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="125">
         <f t="shared" si="0"/>
         <v>3.0828970460231142</v>
       </c>
-      <c r="G24" s="107">
+      <c r="G24" s="125">
         <f t="shared" si="10"/>
         <v>6.6050953976885651E-2</v>
       </c>
-      <c r="H24" s="107">
+      <c r="H24" s="125">
         <f t="shared" si="11"/>
         <v>0.77072426150577855</v>
       </c>
@@ -6636,28 +6669,28 @@
       </c>
     </row>
     <row r="25" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B25" s="106">
+      <c r="B25" s="124">
         <v>348.62</v>
       </c>
-      <c r="C25" s="106">
+      <c r="C25" s="124">
         <v>0.4</v>
       </c>
-      <c r="D25" s="107">
+      <c r="D25" s="125">
         <v>0.88525200000000004</v>
       </c>
-      <c r="E25" s="107">
+      <c r="E25" s="125">
         <f t="shared" si="9"/>
         <v>2.21313</v>
       </c>
-      <c r="F25" s="107">
+      <c r="F25" s="125">
         <f t="shared" si="0"/>
         <v>2.1840449293635142</v>
       </c>
-      <c r="G25" s="107">
+      <c r="G25" s="125">
         <f t="shared" si="10"/>
         <v>2.9085070636485799E-2</v>
       </c>
-      <c r="H25" s="107">
+      <c r="H25" s="125">
         <f t="shared" si="11"/>
         <v>0.87361797174540579</v>
       </c>
@@ -6887,28 +6920,28 @@
       </c>
     </row>
     <row r="26" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B26" s="106">
+      <c r="B26" s="124">
         <v>344.11799999999999</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="124">
         <v>0.5</v>
       </c>
-      <c r="D26" s="107">
+      <c r="D26" s="125">
         <v>0.91931300000000005</v>
       </c>
-      <c r="E26" s="107">
+      <c r="E26" s="125">
         <f t="shared" si="9"/>
         <v>1.8386260000000001</v>
       </c>
-      <c r="F26" s="107">
+      <c r="F26" s="125">
         <f t="shared" si="0"/>
         <v>1.8232563284146841</v>
       </c>
-      <c r="G26" s="107">
+      <c r="G26" s="125">
         <f t="shared" si="10"/>
         <v>1.5369671585315992E-2</v>
       </c>
-      <c r="H26" s="107">
+      <c r="H26" s="125">
         <f t="shared" si="11"/>
         <v>0.91162816420734205</v>
       </c>
@@ -7138,28 +7171,28 @@
       </c>
     </row>
     <row r="27" spans="2:66" x14ac:dyDescent="0.25">
-      <c r="B27" s="109">
+      <c r="B27" s="127">
         <v>335.923</v>
       </c>
-      <c r="C27" s="109">
+      <c r="C27" s="127">
         <v>0.75</v>
       </c>
-      <c r="D27" s="110">
+      <c r="D27" s="128">
         <v>0.96812500000000001</v>
       </c>
-      <c r="E27" s="110">
+      <c r="E27" s="128">
         <f t="shared" si="9"/>
         <v>1.2908333333333333</v>
       </c>
-      <c r="F27" s="110">
+      <c r="F27" s="128">
         <f t="shared" si="0"/>
         <v>1.2892452477813032</v>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="128">
         <f t="shared" si="10"/>
         <v>1.5880855520300496E-3</v>
       </c>
-      <c r="H27" s="110">
+      <c r="H27" s="128">
         <f t="shared" si="11"/>
         <v>0.96693393583597742</v>
       </c>
@@ -7405,8 +7438,8 @@
     <mergeCell ref="AR14:BN14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -7414,7 +7447,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Dbk!$B$15:$B$483</xm:f>
           </x14:formula1>
@@ -7427,7 +7460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7458,17 +7491,17 @@
     </row>
     <row r="2" spans="1:66" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="106" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -7544,12 +7577,12 @@
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="79">
         <f>IF(ISNUMBER(VLOOKUP(B8,Dbk!$B$15:$AE$483,2)),VLOOKUP(B8,Dbk!$B$15:$AE$483,2),0)</f>
         <v>58.08</v>
@@ -7582,12 +7615,12 @@
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="107" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="84">
         <f>IF(ISNUMBER(VLOOKUP(B9,Dbk!$B$15:$AE$483,2)),VLOOKUP(B9,Dbk!$B$15:$AE$483,2),0)</f>
         <v>106.16800000000001</v>
@@ -7700,84 +7733,84 @@
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
-      <c r="M14" s="120" t="s">
+      <c r="M14" s="115" t="s">
         <v>560</v>
       </c>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="123" t="s">
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="118" t="s">
         <v>568</v>
       </c>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="124"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="124"/>
-      <c r="AE14" s="124"/>
-      <c r="AF14" s="124"/>
-      <c r="AG14" s="124"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="124"/>
-      <c r="AJ14" s="124"/>
-      <c r="AK14" s="124"/>
-      <c r="AL14" s="124"/>
-      <c r="AM14" s="124"/>
-      <c r="AN14" s="124"/>
-      <c r="AO14" s="124"/>
-      <c r="AP14" s="124"/>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="126" t="s">
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="119"/>
+      <c r="AL14" s="119"/>
+      <c r="AM14" s="119"/>
+      <c r="AN14" s="119"/>
+      <c r="AO14" s="119"/>
+      <c r="AP14" s="119"/>
+      <c r="AQ14" s="120"/>
+      <c r="AR14" s="121" t="s">
         <v>590</v>
       </c>
-      <c r="AS14" s="127"/>
-      <c r="AT14" s="127"/>
-      <c r="AU14" s="127"/>
-      <c r="AV14" s="127"/>
-      <c r="AW14" s="127"/>
-      <c r="AX14" s="127"/>
-      <c r="AY14" s="127"/>
-      <c r="AZ14" s="127"/>
-      <c r="BA14" s="127"/>
-      <c r="BB14" s="127"/>
-      <c r="BC14" s="127"/>
-      <c r="BD14" s="127"/>
-      <c r="BE14" s="127"/>
-      <c r="BF14" s="127"/>
-      <c r="BG14" s="127"/>
-      <c r="BH14" s="127"/>
-      <c r="BI14" s="127"/>
-      <c r="BJ14" s="127"/>
-      <c r="BK14" s="127"/>
-      <c r="BL14" s="127"/>
-      <c r="BM14" s="127"/>
-      <c r="BN14" s="128"/>
+      <c r="AS14" s="122"/>
+      <c r="AT14" s="122"/>
+      <c r="AU14" s="122"/>
+      <c r="AV14" s="122"/>
+      <c r="AW14" s="122"/>
+      <c r="AX14" s="122"/>
+      <c r="AY14" s="122"/>
+      <c r="AZ14" s="122"/>
+      <c r="BA14" s="122"/>
+      <c r="BB14" s="122"/>
+      <c r="BC14" s="122"/>
+      <c r="BD14" s="122"/>
+      <c r="BE14" s="122"/>
+      <c r="BF14" s="122"/>
+      <c r="BG14" s="122"/>
+      <c r="BH14" s="122"/>
+      <c r="BI14" s="122"/>
+      <c r="BJ14" s="122"/>
+      <c r="BK14" s="122"/>
+      <c r="BL14" s="122"/>
+      <c r="BM14" s="122"/>
+      <c r="BN14" s="123"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="K15" s="42"/>
       <c r="L15" s="54"/>
-      <c r="M15" s="117" t="str">
+      <c r="M15" s="112" t="str">
         <f>"Component 1 : "&amp;B8</f>
         <v>Component 1 : ACETONE</v>
       </c>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="119"/>
-      <c r="Q15" s="117" t="str">
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="112" t="str">
         <f>"Component 2 : "&amp;B9</f>
         <v>Component 2 : M-XYLENE</v>
       </c>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="114"/>
       <c r="U15" s="66"/>
       <c r="V15" s="67"/>
       <c r="W15" s="67"/>
@@ -7795,15 +7828,15 @@
       <c r="AG15" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="AH15" s="117" t="s">
+      <c r="AH15" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="119"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="114"/>
       <c r="AO15" s="42"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="44"/>
@@ -7824,15 +7857,15 @@
       <c r="BD15" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="BE15" s="114" t="s">
+      <c r="BE15" s="109" t="s">
         <v>579</v>
       </c>
-      <c r="BF15" s="115"/>
-      <c r="BG15" s="115"/>
-      <c r="BH15" s="115"/>
-      <c r="BI15" s="115"/>
-      <c r="BJ15" s="115"/>
-      <c r="BK15" s="116"/>
+      <c r="BF15" s="110"/>
+      <c r="BG15" s="110"/>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="110"/>
+      <c r="BJ15" s="110"/>
+      <c r="BK15" s="111"/>
       <c r="BL15" s="61"/>
       <c r="BM15" s="62"/>
       <c r="BN15" s="63"/>
@@ -11795,20 +11828,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AR14:BN14"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="BE15:BK15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:T15"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="M14:T14"/>
     <mergeCell ref="U14:AQ14"/>
-    <mergeCell ref="AR14:BN14"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="BE15:BK15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
@@ -11816,7 +11849,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Dbk!$B$15:$B$483</xm:f>
           </x14:formula1>
@@ -11829,7 +11862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AQ483"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="70" workbookViewId="0">
